--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/20/seed4/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.711400000000003</v>
+        <v>-7.770599999999999</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.9181</v>
+        <v>-21.9514</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.8838</v>
+        <v>-6.932099999999997</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.18539999999999</v>
+        <v>-22.0931</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.810100000000005</v>
+        <v>-7.669300000000003</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.55039999999998</v>
+        <v>-21.46379999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.2735</v>
+        <v>-22.4045</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.653999999999999</v>
+        <v>-8.0953</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.86899999999998</v>
+        <v>-19.94339999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.01389999999996</v>
+        <v>-21.02609999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.748799999999999</v>
+        <v>-8.837999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.60079999999998</v>
+        <v>-21.51819999999998</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.906799999999999</v>
+        <v>-8.973599999999994</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.91249999999997</v>
+        <v>-20.86339999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.278500000000006</v>
+        <v>-7.379900000000005</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.08179999999998</v>
+        <v>-19.98519999999998</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.56269999999999</v>
+        <v>-20.31999999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.895299999999996</v>
+        <v>-8.012099999999997</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.794599999999996</v>
+        <v>-8.850099999999996</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.46709999999999</v>
+        <v>-21.47789999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.482</v>
+        <v>-7.427900000000002</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.7243</v>
+        <v>-7.611499999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.737599999999997</v>
+        <v>-7.569899999999997</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.29249999999999</v>
+        <v>-22.08509999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.221799999999996</v>
+        <v>-8.361200000000006</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.9942</v>
+        <v>-22.373</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.60669999999999</v>
+        <v>-21.6475</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.247399999999998</v>
+        <v>-7.209199999999997</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.5506</v>
+        <v>-7.300199999999998</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.87699999999999</v>
+        <v>-19.91839999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.894699999999999</v>
+        <v>-7.716800000000001</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.27889999999998</v>
+        <v>-19.96399999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.732400000000002</v>
+        <v>-7.423599999999999</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.09770000000001</v>
+        <v>-22.07249999999999</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.0905</v>
+        <v>-22.03319999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.329700000000001</v>
+        <v>-8.385499999999997</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.84109999999998</v>
+        <v>-21.00279999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.0049</v>
+        <v>-6.799900000000001</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.94620000000001</v>
+        <v>-22.0345</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.4239</v>
+        <v>-8.414299999999997</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.970499999999996</v>
+        <v>-7.998599999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
